--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="-5920" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>Analysis</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Dev Data</t>
   </si>
   <si>
-    <t>Random Forest with max_depth = 25</t>
-  </si>
-  <si>
     <t>Accuracy with new Features</t>
   </si>
   <si>
@@ -108,6 +105,27 @@
   </si>
   <si>
     <t>DIFF</t>
+  </si>
+  <si>
+    <t>Random Forest with max_depth = 23</t>
+  </si>
+  <si>
+    <t>Training Data</t>
+  </si>
+  <si>
+    <t>No-Add-Features</t>
+  </si>
+  <si>
+    <t>Presicion</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Classification Report (New Features)</t>
+  </si>
+  <si>
+    <t>Classification Report (Without New Features)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +194,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -186,13 +204,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -244,13 +266,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accuracy with</a:t>
+              <a:t>Accuracy</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> new features</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -315,6 +332,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$L$11:$L$15</c:f>
@@ -342,7 +418,7 @@
             <c:numRef>
               <c:f>Sheet1!$M$11:$M$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.881970260223048</c:v>
@@ -351,13 +427,13 @@
                   <c:v>0.900557620817843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.884758364312267</c:v>
+                  <c:v>0.881040892193308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.900557620817843</c:v>
+                  <c:v>0.897769516728624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.903345724907063</c:v>
+                  <c:v>0.899628252788104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,6 +463,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$L$11:$L$15</c:f>
@@ -414,7 +549,7 @@
             <c:numRef>
               <c:f>Sheet1!$N$11:$N$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.883828996282527</c:v>
@@ -423,10 +558,10 @@
                   <c:v>0.894052044609665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.894981412639405</c:v>
+                  <c:v>0.853159851301115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.896840148698884</c:v>
+                  <c:v>0.882899628252788</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.899628252788104</c:v>
@@ -459,6 +594,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$L$11:$L$15</c:f>
@@ -486,41 +680,173 @@
             <c:numRef>
               <c:f>Sheet1!$O$11:$O$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.882899628252788</c:v>
+                  <c:v>0.881970260223048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.896840148698884</c:v>
+                  <c:v>0.900557620817843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.882899628252788</c:v>
+                  <c:v>0.868959107806691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.900557620817843</c:v>
+                  <c:v>0.895910780669144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.904275092936802</c:v>
+                  <c:v>0.903345724907063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No-Add-Features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$11:$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Gaussian Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multinomial Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$11:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.883828996282527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.898698884758364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.894981412639405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.897769516728624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.901486988847583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-142123472"/>
-        <c:axId val="-142121152"/>
+        <c:axId val="1566199856"/>
+        <c:axId val="1567544000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-142123472"/>
+        <c:axId val="1566199856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-142121152"/>
+        <c:crossAx val="1567544000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,7 +897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-142121152"/>
+        <c:axId val="1567544000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-142123472"/>
+        <c:crossAx val="1566199856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,7 +960,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -832,13 +1158,13 @@
                   <c:v>0.898698884758364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.891263940520446</c:v>
+                  <c:v>0.894981412639405</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.897769516728624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.896840148698884</c:v>
+                  <c:v>0.901486988847583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,11 +1180,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-141865456"/>
-        <c:axId val="-141885408"/>
+        <c:axId val="1607094928"/>
+        <c:axId val="1607097456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-141865456"/>
+        <c:axId val="1607094928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +1227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-141885408"/>
+        <c:crossAx val="1607097456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -909,7 +1235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-141885408"/>
+        <c:axId val="1607097456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +1285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-141865456"/>
+        <c:crossAx val="1607094928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,6 +1297,1365 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Classification Performance</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ADR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lexicon and Neg. Sentiment features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Presicion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$30:$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Gaussian Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multinomial Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$30:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$30:$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Gaussian Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multinomial Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$30:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$30:$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Gaussian Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multinomial Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$30:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1607128048"/>
+        <c:axId val="1607131312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1607128048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1607131312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1607131312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1607128048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Classification Performance</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Without</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Additional Features</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Presicion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Q$30:$Q$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Gaussian Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multinomial Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$30:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Q$30:$Q$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Gaussian Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multinomial Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$30:$S$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$Q$30:$Q$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Gaussian Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multinomial Bayes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$30:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1566249824"/>
+        <c:axId val="1566253088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1566249824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1566253088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1566253088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1566249824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1088,6 +2773,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1592,6 +3357,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2099,15 +4870,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2129,15 +4900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2151,6 +4922,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2422,10 +5253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2433,6 +5264,8 @@
     <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2451,6 +5284,9 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2465,6 +5301,7 @@
       <c r="M3" s="4">
         <v>0.88382899628252698</v>
       </c>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -2479,15 +5316,19 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="9"/>
       <c r="L4" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="4">
         <v>0.89869888475836401</v>
+      </c>
+      <c r="O4" s="5">
+        <f>M4-M3</f>
+        <v>1.4869888475837034E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.25">
@@ -2516,8 +5357,9 @@
         <v>9</v>
       </c>
       <c r="M5" s="4">
-        <v>0.891263940520446</v>
-      </c>
+        <v>0.89498141263940501</v>
+      </c>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2535,7 +5377,7 @@
       <c r="E6">
         <v>962</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2553,6 +5395,7 @@
       <c r="M6" s="4">
         <v>0.89776951672862404</v>
       </c>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2570,7 +5413,7 @@
       <c r="E7">
         <v>1076</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2584,8 +5427,9 @@
         <v>18</v>
       </c>
       <c r="M7" s="4">
-        <v>0.89684014869888395</v>
-      </c>
+        <v>0.90148698884758305</v>
+      </c>
+      <c r="O7" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2595,10 +5439,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2614,27 +5458,30 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="9"/>
       <c r="M10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>25</v>
+      <c r="P10" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="Q10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.25">
@@ -2662,26 +5509,29 @@
       <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="7">
         <v>0.88197026022304803</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="7">
         <v>0.88382899628252698</v>
       </c>
-      <c r="O11" s="4">
-        <v>0.882899628252788</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="O11" s="7">
+        <v>0.88197026022304803</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.88382899628252698</v>
+      </c>
+      <c r="Q11" s="5">
         <f>M11-M3</f>
         <v>-1.8587360594789493E-3</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <f>N11-M3</f>
         <v>0</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="5">
         <f>O11-M3</f>
-        <v>-9.2936802973897503E-4</v>
+        <v>-1.8587360594789493E-3</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.25">
@@ -2700,7 +5550,7 @@
       <c r="E12">
         <v>962</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -2715,26 +5565,29 @@
       <c r="L12" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="7">
         <v>0.90055762081784296</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="7">
         <v>0.89405204460966503</v>
       </c>
-      <c r="O12" s="4">
-        <v>0.89684014869888395</v>
-      </c>
-      <c r="Q12" s="7">
+      <c r="O12" s="7">
+        <v>0.90055762081784296</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.89869888475836401</v>
+      </c>
+      <c r="Q12" s="5">
         <f>M12-M4</f>
         <v>1.8587360594789493E-3</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="5">
         <f>N12-M4</f>
         <v>-4.646840148698983E-3</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="5">
         <f>O12-M4</f>
-        <v>-1.8587360594800595E-3</v>
+        <v>1.8587360594789493E-3</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.25">
@@ -2753,7 +5606,7 @@
       <c r="E13">
         <v>1076</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2766,52 +5619,58 @@
       <c r="L13" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="4">
-        <v>0.88475836431226695</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" s="7">
+        <v>0.88104089219330795</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.85315985130111505</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.86895910780669094</v>
+      </c>
+      <c r="P13" s="7">
         <v>0.89498141263940501</v>
       </c>
-      <c r="O13" s="4">
-        <v>0.882899628252788</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="5">
         <f t="shared" ref="Q13:Q15" si="0">M13-M5</f>
-        <v>-6.5055762081790425E-3</v>
-      </c>
-      <c r="R13" s="7">
+        <v>-1.394052044609706E-2</v>
+      </c>
+      <c r="R13" s="5">
         <f t="shared" ref="R13:R15" si="1">N13-M5</f>
-        <v>3.7174721189590088E-3</v>
-      </c>
-      <c r="S13" s="7">
-        <f t="shared" ref="S13:S15" si="2">O13-M5</f>
-        <v>-8.3643122676579917E-3</v>
+        <v>-4.1821561338289959E-2</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" ref="S13:S14" si="2">O13-M5</f>
+        <v>-2.602230483271406E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="4">
-        <v>0.90055762081784296</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.89684014869888395</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.90055762081784296</v>
-      </c>
-      <c r="Q14" s="7">
+      <c r="M14" s="7">
+        <v>0.89776951672862404</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.882899628252788</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.89591078066914398</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.89776951672862404</v>
+      </c>
+      <c r="Q14" s="5">
         <f t="shared" si="0"/>
-        <v>2.7881040892189235E-3</v>
-      </c>
-      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
         <f t="shared" si="1"/>
-        <v>-9.2936802974008526E-4</v>
-      </c>
-      <c r="S14" s="7">
+        <v>-1.4869888475836035E-2</v>
+      </c>
+      <c r="S14" s="5">
         <f t="shared" si="2"/>
-        <v>2.7881040892189235E-3</v>
+        <v>-1.8587360594800595E-3</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.25">
@@ -2824,26 +5683,29 @@
       <c r="L15" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="7">
+        <v>0.89962825278810399</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.89962825278810399</v>
+      </c>
+      <c r="O15" s="7">
         <v>0.903345724907063</v>
       </c>
-      <c r="N15" s="4">
-        <v>0.89962825278810399</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.90427509293680197</v>
-      </c>
-      <c r="Q15" s="7">
+      <c r="P15" s="7">
+        <v>0.90148698884758305</v>
+      </c>
+      <c r="Q15" s="5">
         <f t="shared" si="0"/>
-        <v>6.5055762081790425E-3</v>
-      </c>
-      <c r="R15" s="7">
+        <v>-1.8587360594790603E-3</v>
+      </c>
+      <c r="R15" s="5">
         <f t="shared" si="1"/>
-        <v>2.7881040892200337E-3</v>
-      </c>
-      <c r="S15" s="7">
-        <f t="shared" si="2"/>
-        <v>7.4349442379180175E-3</v>
+        <v>-1.8587360594790603E-3</v>
+      </c>
+      <c r="S15" s="5">
+        <f>O15-M7</f>
+        <v>1.8587360594799485E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -2860,23 +5722,23 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="C17" s="1">
         <v>0.18</v>
       </c>
       <c r="D17" s="1">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="E17" s="1">
         <v>114</v>
@@ -2891,7 +5753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2907,17 +5769,17 @@
       <c r="E18" s="1">
         <v>962</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
@@ -2926,7 +5788,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2942,15 +5804,15 @@
       <c r="E19" s="1">
         <v>1076</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="L19" t="s">
         <v>4</v>
@@ -2959,15 +5821,18 @@
         <v>962</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -2981,23 +5846,26 @@
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="9"/>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="C23" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D23" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E23" s="1">
         <v>114</v>
@@ -3008,8 +5876,11 @@
       <c r="J23" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3025,20 +5896,20 @@
       <c r="E24" s="1">
         <v>962</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I24">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3049,23 +5920,23 @@
         <v>0.9</v>
       </c>
       <c r="D25" s="1">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E25" s="1">
         <v>1076</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J25">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3073,7 +5944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -3087,23 +5958,29 @@
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="9"/>
+      <c r="L28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="C29" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="D29" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="E29" s="1">
         <v>114</v>
@@ -3114,8 +5991,26 @@
       <c r="J29" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -3126,84 +6021,208 @@
         <v>0.98</v>
       </c>
       <c r="D30" s="1">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="E30" s="1">
         <v>962</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J30">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30">
+        <v>0.43</v>
+      </c>
+      <c r="N30">
+        <v>0.34</v>
+      </c>
+      <c r="O30">
+        <v>0.38</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <v>0.44</v>
+      </c>
+      <c r="S30">
+        <v>0.34</v>
+      </c>
+      <c r="T30">
+        <v>0.38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="1">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C31" s="1">
         <v>0.9</v>
       </c>
       <c r="D31" s="1">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E31" s="1">
         <v>1076</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J31">
-        <v>943</v>
+        <v>947</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N31">
+        <v>0.31</v>
+      </c>
+      <c r="O31">
+        <v>0.4</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>0.54</v>
+      </c>
+      <c r="S31">
+        <v>0.27</v>
+      </c>
+      <c r="T31">
+        <v>0.36</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32">
+        <v>0.37</v>
+      </c>
+      <c r="N32">
+        <v>0.34</v>
+      </c>
+      <c r="O32">
+        <v>0.36</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <v>0.51</v>
+      </c>
+      <c r="S32">
+        <v>0.18</v>
+      </c>
+      <c r="T32">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33">
+        <v>0.52</v>
+      </c>
+      <c r="N33">
+        <v>0.2</v>
+      </c>
+      <c r="O33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33">
+        <v>0.6</v>
+      </c>
+      <c r="S33">
+        <v>0.11</v>
+      </c>
+      <c r="T33">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34">
+        <v>0.62</v>
+      </c>
+      <c r="N34">
+        <v>0.22</v>
+      </c>
+      <c r="O34">
+        <v>0.32</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34">
+        <v>0.61</v>
+      </c>
+      <c r="S34">
+        <v>0.2</v>
+      </c>
+      <c r="T34">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G39" s="5"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G39" s="8"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G40" s="5"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G40" s="8"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G45" s="5"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G45" s="8"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G46" s="5"/>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G46" s="8"/>
       <c r="H46" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -3212,8 +6231,8 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
@@ -3230,7 +6249,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3239,7 +6258,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3248,8 +6267,8 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
@@ -3266,7 +6285,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -3275,7 +6294,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -3284,8 +6303,8 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
@@ -3302,7 +6321,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="G63" s="5"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -3311,7 +6330,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="3"/>
     </row>
   </sheetData>
